--- a/Excel/表8常用经济指标.xlsx
+++ b/Excel/表8常用经济指标.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB2CB21-60E1-4A78-9FCC-280E2E4E812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665598EF-7842-4D17-9CE5-3B6FE4390F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表8-1经济指标参数" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
